--- a/Outputs/3. Prosumer percentage/Base Cases/25/Output_0_40.xlsx
+++ b/Outputs/3. Prosumer percentage/Base Cases/25/Output_0_40.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2507382.002861322</v>
+        <v>2507382.002861321</v>
       </c>
     </row>
     <row r="7">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>881931.9951764599</v>
+        <v>881931.9951764597</v>
       </c>
       <c r="C2" t="n">
-        <v>881931.9951764599</v>
+        <v>881931.9951764597</v>
       </c>
       <c r="D2" t="n">
-        <v>881931.9951764599</v>
+        <v>881931.9951764597</v>
       </c>
       <c r="E2" t="n">
-        <v>859088.8910843957</v>
+        <v>859088.8910843956</v>
       </c>
       <c r="F2" t="n">
-        <v>859177.9426014834</v>
+        <v>859177.9426014831</v>
       </c>
       <c r="G2" t="n">
-        <v>867563.0673527146</v>
+        <v>867563.0673527144</v>
       </c>
       <c r="H2" t="n">
-        <v>867563.0673527146</v>
+        <v>867563.0673527144</v>
       </c>
       <c r="I2" t="n">
-        <v>867563.0673527146</v>
+        <v>867563.0673527144</v>
       </c>
       <c r="J2" t="n">
-        <v>845642.5597620677</v>
+        <v>845642.5597620676</v>
       </c>
       <c r="K2" t="n">
-        <v>867016.3351695698</v>
+        <v>867016.3351695695</v>
       </c>
       <c r="L2" t="n">
-        <v>876323.6052763007</v>
+        <v>876323.6052763006</v>
       </c>
       <c r="M2" t="n">
-        <v>876323.6052763007</v>
+        <v>876323.6052763006</v>
       </c>
       <c r="N2" t="n">
-        <v>876323.6052763007</v>
+        <v>876323.6052763006</v>
       </c>
       <c r="O2" t="n">
-        <v>846848.4547341542</v>
+        <v>846848.454734154</v>
       </c>
       <c r="P2" t="n">
-        <v>821182.6085094688</v>
+        <v>821182.6085094685</v>
       </c>
     </row>
     <row r="3">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>344926.6494395801</v>
+        <v>344926.6494395799</v>
       </c>
       <c r="C6" t="n">
-        <v>344926.6494395801</v>
+        <v>344926.6494395799</v>
       </c>
       <c r="D6" t="n">
-        <v>344926.6494395801</v>
+        <v>344926.6494395799</v>
       </c>
       <c r="E6" t="n">
-        <v>70135.34166429874</v>
+        <v>70135.34166429855</v>
       </c>
       <c r="F6" t="n">
-        <v>340281.3997459474</v>
+        <v>340281.3997459471</v>
       </c>
       <c r="G6" t="n">
-        <v>332230.5192542129</v>
+        <v>332230.5192542127</v>
       </c>
       <c r="H6" t="n">
-        <v>342862.7169286141</v>
+        <v>342862.7169286139</v>
       </c>
       <c r="I6" t="n">
-        <v>342862.7169286141</v>
+        <v>342862.7169286139</v>
       </c>
       <c r="J6" t="n">
-        <v>90029.40055635443</v>
+        <v>90029.40055635432</v>
       </c>
       <c r="K6" t="n">
-        <v>319150.5167512005</v>
+        <v>319150.5167512001</v>
       </c>
       <c r="L6" t="n">
-        <v>317266.153764504</v>
+        <v>317266.1537645039</v>
       </c>
       <c r="M6" t="n">
-        <v>344917.0831832711</v>
+        <v>344917.083183271</v>
       </c>
       <c r="N6" t="n">
-        <v>344917.0831832711</v>
+        <v>344917.083183271</v>
       </c>
       <c r="O6" t="n">
-        <v>129686.9986185452</v>
+        <v>129686.998618545</v>
       </c>
       <c r="P6" t="n">
-        <v>327851.0437949295</v>
+        <v>327851.0437949292</v>
       </c>
     </row>
   </sheetData>

--- a/Outputs/3. Prosumer percentage/Base Cases/25/Output_0_40.xlsx
+++ b/Outputs/3. Prosumer percentage/Base Cases/25/Output_0_40.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2507382.002861321</v>
+        <v>2491799.416823825</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>698413.5940011882</v>
+        <v>632041.4518058543</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7514972.006645132</v>
+        <v>7525745.459914266</v>
       </c>
     </row>
     <row r="11">
@@ -23255,25 +23257,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>36.31508073560605</v>
+        <v>36.19077655206644</v>
       </c>
       <c r="C11" t="n">
-        <v>12.43333773895154</v>
+        <v>12.30903355541193</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>33.70675241940887</v>
+        <v>33.58244823586926</v>
       </c>
       <c r="F11" t="n">
-        <v>65.4270899977862</v>
+        <v>65.30278581424659</v>
       </c>
       <c r="G11" t="n">
-        <v>81.47273245238443</v>
+        <v>81.34842826884483</v>
       </c>
       <c r="H11" t="n">
-        <v>13.41455127654115</v>
+        <v>13.29024709300154</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23318,13 +23320,13 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0.124304183539607</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>22.01055465247885</v>
+        <v>21.88625046893924</v>
       </c>
       <c r="Y11" t="n">
-        <v>44.51340777622261</v>
+        <v>44.389103592683</v>
       </c>
     </row>
     <row r="12">
@@ -23729,7 +23731,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>22.9005294590649</v>
+        <v>23.88174299665451</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -23738,16 +23740,16 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>20.29220114286773</v>
+        <v>21.27341468045734</v>
       </c>
       <c r="F17" t="n">
-        <v>52.01253872124505</v>
+        <v>52.99375225883466</v>
       </c>
       <c r="G17" t="n">
-        <v>68.05818117584329</v>
+        <v>69.0393947134329</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>0.9812135375896105</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23795,10 +23797,10 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>8.596003375937698</v>
+        <v>9.577216913527309</v>
       </c>
       <c r="Y17" t="n">
-        <v>31.09885649968146</v>
+        <v>32.08007003727107</v>
       </c>
     </row>
     <row r="18">
@@ -23966,7 +23968,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>22.9005294590649</v>
+        <v>23.88174299665451</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -23975,16 +23977,16 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>20.29220114286773</v>
+        <v>21.27341468045734</v>
       </c>
       <c r="F20" t="n">
-        <v>52.01253872124505</v>
+        <v>52.99375225883466</v>
       </c>
       <c r="G20" t="n">
-        <v>68.05818117584329</v>
+        <v>69.0393947134329</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>0.9812135375896105</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24032,10 +24034,10 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>8.596003375937698</v>
+        <v>9.577216913527309</v>
       </c>
       <c r="Y20" t="n">
-        <v>31.09885649968146</v>
+        <v>32.08007003727107</v>
       </c>
     </row>
     <row r="21">
@@ -24203,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>22.9005294590649</v>
+        <v>23.88174299665451</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -24212,16 +24214,16 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>20.29220114286773</v>
+        <v>21.27341468045734</v>
       </c>
       <c r="F23" t="n">
-        <v>52.01253872124505</v>
+        <v>52.99375225883466</v>
       </c>
       <c r="G23" t="n">
-        <v>68.05818117584329</v>
+        <v>69.0393947134329</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>0.9812135375896105</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24269,10 +24271,10 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>8.596003375937698</v>
+        <v>9.577216913527309</v>
       </c>
       <c r="Y23" t="n">
-        <v>31.09885649968146</v>
+        <v>32.08007003727107</v>
       </c>
     </row>
     <row r="24">
@@ -24440,25 +24442,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>53.20745676868131</v>
+        <v>36.19077655206644</v>
       </c>
       <c r="C26" t="n">
-        <v>29.3257137720268</v>
+        <v>12.30903355541193</v>
       </c>
       <c r="D26" t="n">
-        <v>16.89237603307527</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>50.59912845248414</v>
+        <v>33.58244823586926</v>
       </c>
       <c r="F26" t="n">
-        <v>82.31946603086146</v>
+        <v>65.30278581424659</v>
       </c>
       <c r="G26" t="n">
-        <v>98.3651084854597</v>
+        <v>81.34842826884483</v>
       </c>
       <c r="H26" t="n">
-        <v>30.30692730961641</v>
+        <v>13.29024709300154</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24503,13 +24505,13 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>17.01668021661487</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>38.90293068555411</v>
+        <v>21.88625046893924</v>
       </c>
       <c r="Y26" t="n">
-        <v>61.40578380929787</v>
+        <v>44.389103592683</v>
       </c>
     </row>
     <row r="27">
@@ -24677,25 +24679,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>23.88174299665451</v>
+        <v>36.19077655206644</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>12.30903355541193</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>21.27341468045734</v>
+        <v>33.58244823586926</v>
       </c>
       <c r="F29" t="n">
-        <v>52.99375225883466</v>
+        <v>65.30278581424659</v>
       </c>
       <c r="G29" t="n">
-        <v>69.0393947134329</v>
+        <v>81.34842826884483</v>
       </c>
       <c r="H29" t="n">
-        <v>0.9812135375896105</v>
+        <v>13.29024709300154</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24743,10 +24745,10 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>9.577216913527309</v>
+        <v>21.88625046893924</v>
       </c>
       <c r="Y29" t="n">
-        <v>32.08007003727107</v>
+        <v>44.389103592683</v>
       </c>
     </row>
     <row r="30">
@@ -24914,7 +24916,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2.608328316197174</v>
+        <v>23.88174299665451</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -24923,16 +24925,16 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>21.27341468045734</v>
       </c>
       <c r="F32" t="n">
-        <v>31.72033757837733</v>
+        <v>52.99375225883466</v>
       </c>
       <c r="G32" t="n">
-        <v>47.76598003297556</v>
+        <v>69.0393947134329</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>0.9812135375896105</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -24980,10 +24982,10 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>9.577216913527309</v>
       </c>
       <c r="Y32" t="n">
-        <v>10.80665535681374</v>
+        <v>32.08007003727107</v>
       </c>
     </row>
     <row r="33">
@@ -25151,7 +25153,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2.608328316197174</v>
+        <v>23.88174299665451</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -25160,16 +25162,16 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>21.27341468045734</v>
       </c>
       <c r="F35" t="n">
-        <v>31.72033757837733</v>
+        <v>52.99375225883466</v>
       </c>
       <c r="G35" t="n">
-        <v>47.76598003297556</v>
+        <v>69.0393947134329</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>0.9812135375896105</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25217,10 +25219,10 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>9.577216913527309</v>
       </c>
       <c r="Y35" t="n">
-        <v>10.80665535681374</v>
+        <v>32.08007003727107</v>
       </c>
     </row>
     <row r="36">
@@ -25388,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2.608328316197174</v>
+        <v>23.88174299665451</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -25397,16 +25399,16 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>21.27341468045734</v>
       </c>
       <c r="F38" t="n">
-        <v>31.72033757837733</v>
+        <v>52.99375225883466</v>
       </c>
       <c r="G38" t="n">
-        <v>47.76598003297556</v>
+        <v>69.0393947134329</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>0.9812135375896105</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25454,10 +25456,10 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>9.577216913527309</v>
       </c>
       <c r="Y38" t="n">
-        <v>10.80665535681374</v>
+        <v>32.08007003727107</v>
       </c>
     </row>
     <row r="39">
@@ -25625,25 +25627,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>51.69251333641199</v>
+        <v>36.19077655206644</v>
       </c>
       <c r="C41" t="n">
-        <v>27.81077033975748</v>
+        <v>12.30903355541193</v>
       </c>
       <c r="D41" t="n">
-        <v>15.37743260080595</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>49.08418502021482</v>
+        <v>33.58244823586926</v>
       </c>
       <c r="F41" t="n">
-        <v>80.80452259859214</v>
+        <v>65.30278581424659</v>
       </c>
       <c r="G41" t="n">
-        <v>96.85016505319038</v>
+        <v>81.34842826884483</v>
       </c>
       <c r="H41" t="n">
-        <v>28.79198387734709</v>
+        <v>13.29024709300154</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25688,13 +25690,13 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>15.50173678434555</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>37.38798725328479</v>
+        <v>21.88625046893924</v>
       </c>
       <c r="Y41" t="n">
-        <v>59.89084037702855</v>
+        <v>44.389103592683</v>
       </c>
     </row>
     <row r="42">
@@ -25862,25 +25864,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>81.1425312919784</v>
+        <v>36.19077655206644</v>
       </c>
       <c r="C44" t="n">
-        <v>57.26078829532389</v>
+        <v>12.30903355541193</v>
       </c>
       <c r="D44" t="n">
-        <v>44.82745055637236</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>78.53420297578123</v>
+        <v>33.58244823586926</v>
       </c>
       <c r="F44" t="n">
-        <v>110.2545405541586</v>
+        <v>65.30278581424659</v>
       </c>
       <c r="G44" t="n">
-        <v>126.3001830087568</v>
+        <v>81.34842826884483</v>
       </c>
       <c r="H44" t="n">
-        <v>58.2420018329135</v>
+        <v>13.29024709300154</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25922,16 +25924,16 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>27.93507452329709</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>44.95175473991191</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>66.8380052088512</v>
+        <v>21.88625046893924</v>
       </c>
       <c r="Y44" t="n">
-        <v>89.34085833259496</v>
+        <v>44.389103592683</v>
       </c>
     </row>
     <row r="45">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>644316.6683132967</v>
+        <v>644383.4569511125</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>650672.3005145361</v>
+        <v>650262.2513771773</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>650672.3005145361</v>
+        <v>650262.2513771773</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>650672.3005145361</v>
+        <v>650262.2513771773</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>634231.9198215508</v>
+        <v>644383.4569511125</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>650262.2513771773</v>
+        <v>644383.4569511125</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>657242.7039572254</v>
+        <v>650262.2513771773</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>657242.7039572254</v>
+        <v>650262.2513771773</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>657242.7039572254</v>
+        <v>650262.2513771773</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>635136.3410506155</v>
+        <v>644383.4569511125</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>615886.9563821015</v>
+        <v>644383.4569511125</v>
       </c>
     </row>
   </sheetData>
@@ -26320,40 +26322,40 @@
         <v>881931.9951764597</v>
       </c>
       <c r="E2" t="n">
-        <v>859088.8910843956</v>
+        <v>859177.9426014831</v>
       </c>
       <c r="F2" t="n">
         <v>859177.9426014831</v>
       </c>
       <c r="G2" t="n">
-        <v>867563.0673527144</v>
+        <v>867016.3351695695</v>
       </c>
       <c r="H2" t="n">
-        <v>867563.0673527144</v>
+        <v>867016.3351695695</v>
       </c>
       <c r="I2" t="n">
-        <v>867563.0673527144</v>
+        <v>867016.3351695695</v>
       </c>
       <c r="J2" t="n">
-        <v>845642.5597620676</v>
+        <v>859177.9426014831</v>
       </c>
       <c r="K2" t="n">
+        <v>859177.9426014831</v>
+      </c>
+      <c r="L2" t="n">
         <v>867016.3351695695</v>
       </c>
-      <c r="L2" t="n">
-        <v>876323.6052763006</v>
-      </c>
       <c r="M2" t="n">
-        <v>876323.6052763006</v>
+        <v>867016.3351695695</v>
       </c>
       <c r="N2" t="n">
-        <v>876323.6052763006</v>
+        <v>867016.3351695695</v>
       </c>
       <c r="O2" t="n">
-        <v>846848.454734154</v>
+        <v>859177.9426014831</v>
       </c>
       <c r="P2" t="n">
-        <v>821182.6085094685</v>
+        <v>859177.9426014831</v>
       </c>
     </row>
     <row r="3">
@@ -26372,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>270217.7277137818</v>
+        <v>270317.1710606135</v>
       </c>
       <c r="F3" t="n">
-        <v>99.44334683168563</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>10632.19767440123</v>
+        <v>9847.226844329543</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,13 +26389,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>245972.1858660887</v>
+        <v>260469.944216284</v>
       </c>
       <c r="K3" t="n">
-        <v>23560.01436445313</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>27650.9294187671</v>
+        <v>19694.45368865909</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -26402,7 +26404,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>206704.8378499168</v>
+        <v>250622.7173719544</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26424,40 +26426,40 @@
         <v>503377.7457368798</v>
       </c>
       <c r="E4" t="n">
-        <v>490339.6540173528</v>
+        <v>490390.4816913359</v>
       </c>
       <c r="F4" t="n">
         <v>490390.4816913359</v>
       </c>
       <c r="G4" t="n">
-        <v>495176.4348238705</v>
+        <v>494864.3780945779</v>
       </c>
       <c r="H4" t="n">
-        <v>495176.4348238705</v>
+        <v>494864.3780945779</v>
       </c>
       <c r="I4" t="n">
-        <v>495176.4348238705</v>
+        <v>494864.3780945779</v>
       </c>
       <c r="J4" t="n">
-        <v>482664.9308113868</v>
+        <v>490390.4816913359</v>
       </c>
       <c r="K4" t="n">
+        <v>490390.4816913359</v>
+      </c>
+      <c r="L4" t="n">
         <v>494864.3780945779</v>
       </c>
-      <c r="L4" t="n">
-        <v>500176.6614349199</v>
-      </c>
       <c r="M4" t="n">
-        <v>500176.6614349199</v>
+        <v>494864.3780945779</v>
       </c>
       <c r="N4" t="n">
-        <v>500176.6614349199</v>
+        <v>494864.3780945779</v>
       </c>
       <c r="O4" t="n">
-        <v>483353.215958047</v>
+        <v>490390.4816913359</v>
       </c>
       <c r="P4" t="n">
-        <v>468703.9959664006</v>
+        <v>490390.4816913359</v>
       </c>
     </row>
     <row r="5">
@@ -26476,40 +26478,40 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>28396.16768896241</v>
+        <v>28406.6178173684</v>
       </c>
       <c r="F5" t="n">
         <v>28406.6178173684</v>
       </c>
       <c r="G5" t="n">
-        <v>29523.91560022994</v>
+        <v>29441.42595933832</v>
       </c>
       <c r="H5" t="n">
-        <v>29523.91560022994</v>
+        <v>29441.42595933832</v>
       </c>
       <c r="I5" t="n">
-        <v>29523.91560022994</v>
+        <v>29441.42595933832</v>
       </c>
       <c r="J5" t="n">
-        <v>26976.0425282378</v>
+        <v>28406.6178173684</v>
       </c>
       <c r="K5" t="n">
+        <v>28406.6178173684</v>
+      </c>
+      <c r="L5" t="n">
         <v>29441.42595933832</v>
       </c>
-      <c r="L5" t="n">
-        <v>31229.86065810969</v>
-      </c>
       <c r="M5" t="n">
-        <v>31229.86065810969</v>
+        <v>29441.42595933832</v>
       </c>
       <c r="N5" t="n">
-        <v>31229.86065810969</v>
+        <v>29441.42595933832</v>
       </c>
       <c r="O5" t="n">
-        <v>27103.40230764525</v>
+        <v>28406.6178173684</v>
       </c>
       <c r="P5" t="n">
-        <v>24627.56874813874</v>
+        <v>28406.6178173684</v>
       </c>
     </row>
     <row r="6">
@@ -26528,40 +26530,40 @@
         <v>344926.6494395799</v>
       </c>
       <c r="E6" t="n">
-        <v>70135.34166429855</v>
+        <v>70063.67203216534</v>
       </c>
       <c r="F6" t="n">
-        <v>340281.3997459471</v>
+        <v>340380.8430927788</v>
       </c>
       <c r="G6" t="n">
-        <v>332230.5192542127</v>
+        <v>332863.3042713238</v>
       </c>
       <c r="H6" t="n">
-        <v>342862.7169286139</v>
+        <v>342710.5311156533</v>
       </c>
       <c r="I6" t="n">
-        <v>342862.7169286139</v>
+        <v>342710.5311156533</v>
       </c>
       <c r="J6" t="n">
-        <v>90029.40055635432</v>
+        <v>79910.89887649486</v>
       </c>
       <c r="K6" t="n">
-        <v>319150.5167512001</v>
+        <v>340380.8430927788</v>
       </c>
       <c r="L6" t="n">
-        <v>317266.1537645039</v>
+        <v>323016.0774269942</v>
       </c>
       <c r="M6" t="n">
-        <v>344917.083183271</v>
+        <v>342710.5311156533</v>
       </c>
       <c r="N6" t="n">
-        <v>344917.083183271</v>
+        <v>342710.5311156533</v>
       </c>
       <c r="O6" t="n">
-        <v>129686.998618545</v>
+        <v>89758.12572082448</v>
       </c>
       <c r="P6" t="n">
-        <v>327851.0437949292</v>
+        <v>340380.8430927788</v>
       </c>
     </row>
   </sheetData>
@@ -26692,40 +26694,40 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>337.7721596422273</v>
+        <v>337.8964638257669</v>
       </c>
       <c r="F2" t="n">
         <v>337.8964638257669</v>
       </c>
       <c r="G2" t="n">
-        <v>351.1867109187684</v>
+        <v>350.2054973811788</v>
       </c>
       <c r="H2" t="n">
-        <v>351.1867109187684</v>
+        <v>350.2054973811788</v>
       </c>
       <c r="I2" t="n">
-        <v>351.1867109187684</v>
+        <v>350.2054973811788</v>
       </c>
       <c r="J2" t="n">
-        <v>320.879783609152</v>
+        <v>337.8964638257669</v>
       </c>
       <c r="K2" t="n">
+        <v>337.8964638257669</v>
+      </c>
+      <c r="L2" t="n">
         <v>350.2054973811788</v>
       </c>
-      <c r="L2" t="n">
-        <v>371.4789120616362</v>
-      </c>
       <c r="M2" t="n">
-        <v>371.4789120616362</v>
+        <v>350.2054973811788</v>
       </c>
       <c r="N2" t="n">
-        <v>371.4789120616362</v>
+        <v>350.2054973811788</v>
       </c>
       <c r="O2" t="n">
-        <v>322.3947270414213</v>
+        <v>337.8964638257669</v>
       </c>
       <c r="P2" t="n">
-        <v>292.9447090858549</v>
+        <v>337.8964638257669</v>
       </c>
     </row>
     <row r="3">
@@ -26914,13 +26916,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>337.7721596422273</v>
+        <v>337.8964638257669</v>
       </c>
       <c r="F2" t="n">
-        <v>0.124304183539607</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>13.29024709300154</v>
+        <v>12.30903355541193</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,13 +26931,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>307.4652323326109</v>
+        <v>325.587430270355</v>
       </c>
       <c r="K2" t="n">
-        <v>29.45001795556641</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>34.56366177345888</v>
+        <v>24.61806711082386</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26944,7 +26946,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>258.381047312396</v>
+        <v>313.278396714943</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27151,13 +27153,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>337.7721596422273</v>
+        <v>337.8964638257669</v>
       </c>
       <c r="K2" t="n">
-        <v>0.124304183539607</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>13.29024709300154</v>
+        <v>12.30903355541193</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,10 +27168,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>307.4652323326109</v>
+        <v>325.587430270355</v>
       </c>
       <c r="P2" t="n">
-        <v>29.45001795556641</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -28087,25 +28089,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>337.7721596422273</v>
+        <v>337.8964638257669</v>
       </c>
       <c r="C11" t="n">
-        <v>337.7721596422273</v>
+        <v>337.8964638257669</v>
       </c>
       <c r="D11" t="n">
         <v>337.7721596422273</v>
       </c>
       <c r="E11" t="n">
-        <v>337.7721596422273</v>
+        <v>337.8964638257669</v>
       </c>
       <c r="F11" t="n">
-        <v>337.7721596422273</v>
+        <v>337.8964638257669</v>
       </c>
       <c r="G11" t="n">
-        <v>337.7721596422273</v>
+        <v>337.8964638257669</v>
       </c>
       <c r="H11" t="n">
-        <v>337.7721596422273</v>
+        <v>337.8964638257669</v>
       </c>
       <c r="I11" t="n">
         <v>256.6898085504863</v>
@@ -28150,13 +28152,13 @@
         <v>320.879783609152</v>
       </c>
       <c r="W11" t="n">
-        <v>337.7721596422273</v>
+        <v>337.8964638257669</v>
       </c>
       <c r="X11" t="n">
-        <v>337.7721596422273</v>
+        <v>337.8964638257669</v>
       </c>
       <c r="Y11" t="n">
-        <v>337.7721596422273</v>
+        <v>337.8964638257669</v>
       </c>
     </row>
     <row r="12">
@@ -28561,7 +28563,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>351.1867109187684</v>
+        <v>350.2054973811788</v>
       </c>
       <c r="C17" t="n">
         <v>350.2054973811788</v>
@@ -28570,16 +28572,16 @@
         <v>337.7721596422273</v>
       </c>
       <c r="E17" t="n">
-        <v>351.1867109187684</v>
+        <v>350.2054973811788</v>
       </c>
       <c r="F17" t="n">
-        <v>351.1867109187684</v>
+        <v>350.2054973811788</v>
       </c>
       <c r="G17" t="n">
-        <v>351.1867109187684</v>
+        <v>350.2054973811788</v>
       </c>
       <c r="H17" t="n">
-        <v>351.1867109187684</v>
+        <v>350.2054973811788</v>
       </c>
       <c r="I17" t="n">
         <v>256.6898085504863</v>
@@ -28627,10 +28629,10 @@
         <v>337.8964638257669</v>
       </c>
       <c r="X17" t="n">
-        <v>351.1867109187684</v>
+        <v>350.2054973811788</v>
       </c>
       <c r="Y17" t="n">
-        <v>351.1867109187684</v>
+        <v>350.2054973811788</v>
       </c>
     </row>
     <row r="18">
@@ -28798,7 +28800,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>351.1867109187684</v>
+        <v>350.2054973811788</v>
       </c>
       <c r="C20" t="n">
         <v>350.2054973811788</v>
@@ -28807,16 +28809,16 @@
         <v>337.7721596422273</v>
       </c>
       <c r="E20" t="n">
-        <v>351.1867109187684</v>
+        <v>350.2054973811788</v>
       </c>
       <c r="F20" t="n">
-        <v>351.1867109187684</v>
+        <v>350.2054973811788</v>
       </c>
       <c r="G20" t="n">
-        <v>351.1867109187684</v>
+        <v>350.2054973811788</v>
       </c>
       <c r="H20" t="n">
-        <v>351.1867109187684</v>
+        <v>350.2054973811788</v>
       </c>
       <c r="I20" t="n">
         <v>256.6898085504863</v>
@@ -28864,10 +28866,10 @@
         <v>337.8964638257669</v>
       </c>
       <c r="X20" t="n">
-        <v>351.1867109187684</v>
+        <v>350.2054973811788</v>
       </c>
       <c r="Y20" t="n">
-        <v>351.1867109187684</v>
+        <v>350.2054973811788</v>
       </c>
     </row>
     <row r="21">
@@ -29035,7 +29037,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>351.1867109187684</v>
+        <v>350.2054973811788</v>
       </c>
       <c r="C23" t="n">
         <v>350.2054973811788</v>
@@ -29044,16 +29046,16 @@
         <v>337.7721596422273</v>
       </c>
       <c r="E23" t="n">
-        <v>351.1867109187684</v>
+        <v>350.2054973811788</v>
       </c>
       <c r="F23" t="n">
-        <v>351.1867109187684</v>
+        <v>350.2054973811788</v>
       </c>
       <c r="G23" t="n">
-        <v>351.1867109187684</v>
+        <v>350.2054973811788</v>
       </c>
       <c r="H23" t="n">
-        <v>351.1867109187684</v>
+        <v>350.2054973811788</v>
       </c>
       <c r="I23" t="n">
         <v>256.6898085504863</v>
@@ -29101,10 +29103,10 @@
         <v>337.8964638257669</v>
       </c>
       <c r="X23" t="n">
-        <v>351.1867109187684</v>
+        <v>350.2054973811788</v>
       </c>
       <c r="Y23" t="n">
-        <v>351.1867109187684</v>
+        <v>350.2054973811788</v>
       </c>
     </row>
     <row r="24">
@@ -29272,25 +29274,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>320.879783609152</v>
+        <v>337.8964638257669</v>
       </c>
       <c r="C26" t="n">
-        <v>320.879783609152</v>
+        <v>337.8964638257669</v>
       </c>
       <c r="D26" t="n">
-        <v>320.879783609152</v>
+        <v>337.7721596422273</v>
       </c>
       <c r="E26" t="n">
-        <v>320.879783609152</v>
+        <v>337.8964638257669</v>
       </c>
       <c r="F26" t="n">
-        <v>320.879783609152</v>
+        <v>337.8964638257669</v>
       </c>
       <c r="G26" t="n">
-        <v>320.879783609152</v>
+        <v>337.8964638257669</v>
       </c>
       <c r="H26" t="n">
-        <v>320.879783609152</v>
+        <v>337.8964638257669</v>
       </c>
       <c r="I26" t="n">
         <v>256.6898085504863</v>
@@ -29335,13 +29337,13 @@
         <v>320.879783609152</v>
       </c>
       <c r="W26" t="n">
-        <v>320.879783609152</v>
+        <v>337.8964638257669</v>
       </c>
       <c r="X26" t="n">
-        <v>320.879783609152</v>
+        <v>337.8964638257669</v>
       </c>
       <c r="Y26" t="n">
-        <v>320.879783609152</v>
+        <v>337.8964638257669</v>
       </c>
     </row>
     <row r="27">
@@ -29509,25 +29511,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>350.2054973811788</v>
+        <v>337.8964638257669</v>
       </c>
       <c r="C29" t="n">
-        <v>350.2054973811788</v>
+        <v>337.8964638257669</v>
       </c>
       <c r="D29" t="n">
         <v>337.7721596422273</v>
       </c>
       <c r="E29" t="n">
-        <v>350.2054973811788</v>
+        <v>337.8964638257669</v>
       </c>
       <c r="F29" t="n">
-        <v>350.2054973811788</v>
+        <v>337.8964638257669</v>
       </c>
       <c r="G29" t="n">
-        <v>350.2054973811788</v>
+        <v>337.8964638257669</v>
       </c>
       <c r="H29" t="n">
-        <v>350.2054973811788</v>
+        <v>337.8964638257669</v>
       </c>
       <c r="I29" t="n">
         <v>256.6898085504863</v>
@@ -29575,10 +29577,10 @@
         <v>337.8964638257669</v>
       </c>
       <c r="X29" t="n">
-        <v>350.2054973811788</v>
+        <v>337.8964638257669</v>
       </c>
       <c r="Y29" t="n">
-        <v>350.2054973811788</v>
+        <v>337.8964638257669</v>
       </c>
     </row>
     <row r="30">
@@ -29746,7 +29748,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>371.4789120616362</v>
+        <v>350.2054973811788</v>
       </c>
       <c r="C32" t="n">
         <v>350.2054973811788</v>
@@ -29755,16 +29757,16 @@
         <v>337.7721596422273</v>
       </c>
       <c r="E32" t="n">
-        <v>371.4789120616362</v>
+        <v>350.2054973811788</v>
       </c>
       <c r="F32" t="n">
-        <v>371.4789120616362</v>
+        <v>350.2054973811788</v>
       </c>
       <c r="G32" t="n">
-        <v>371.4789120616362</v>
+        <v>350.2054973811788</v>
       </c>
       <c r="H32" t="n">
-        <v>351.1867109187684</v>
+        <v>350.2054973811788</v>
       </c>
       <c r="I32" t="n">
         <v>256.6898085504863</v>
@@ -29812,10 +29814,10 @@
         <v>337.8964638257669</v>
       </c>
       <c r="X32" t="n">
-        <v>359.7827142947061</v>
+        <v>350.2054973811788</v>
       </c>
       <c r="Y32" t="n">
-        <v>371.4789120616362</v>
+        <v>350.2054973811788</v>
       </c>
     </row>
     <row r="33">
@@ -29983,7 +29985,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>371.4789120616362</v>
+        <v>350.2054973811788</v>
       </c>
       <c r="C35" t="n">
         <v>350.2054973811788</v>
@@ -29992,16 +29994,16 @@
         <v>337.7721596422273</v>
       </c>
       <c r="E35" t="n">
-        <v>371.4789120616362</v>
+        <v>350.2054973811788</v>
       </c>
       <c r="F35" t="n">
-        <v>371.4789120616362</v>
+        <v>350.2054973811788</v>
       </c>
       <c r="G35" t="n">
-        <v>371.4789120616362</v>
+        <v>350.2054973811788</v>
       </c>
       <c r="H35" t="n">
-        <v>351.1867109187684</v>
+        <v>350.2054973811788</v>
       </c>
       <c r="I35" t="n">
         <v>256.6898085504863</v>
@@ -30049,10 +30051,10 @@
         <v>337.8964638257669</v>
       </c>
       <c r="X35" t="n">
-        <v>359.7827142947061</v>
+        <v>350.2054973811788</v>
       </c>
       <c r="Y35" t="n">
-        <v>371.4789120616362</v>
+        <v>350.2054973811788</v>
       </c>
     </row>
     <row r="36">
@@ -30220,7 +30222,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>371.4789120616362</v>
+        <v>350.2054973811788</v>
       </c>
       <c r="C38" t="n">
         <v>350.2054973811788</v>
@@ -30229,16 +30231,16 @@
         <v>337.7721596422273</v>
       </c>
       <c r="E38" t="n">
-        <v>371.4789120616362</v>
+        <v>350.2054973811788</v>
       </c>
       <c r="F38" t="n">
-        <v>371.4789120616362</v>
+        <v>350.2054973811788</v>
       </c>
       <c r="G38" t="n">
-        <v>371.4789120616362</v>
+        <v>350.2054973811788</v>
       </c>
       <c r="H38" t="n">
-        <v>351.1867109187684</v>
+        <v>350.2054973811788</v>
       </c>
       <c r="I38" t="n">
         <v>256.6898085504863</v>
@@ -30286,10 +30288,10 @@
         <v>337.8964638257669</v>
       </c>
       <c r="X38" t="n">
-        <v>359.7827142947061</v>
+        <v>350.2054973811788</v>
       </c>
       <c r="Y38" t="n">
-        <v>371.4789120616362</v>
+        <v>350.2054973811788</v>
       </c>
     </row>
     <row r="39">
@@ -30457,25 +30459,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>322.3947270414213</v>
+        <v>337.8964638257669</v>
       </c>
       <c r="C41" t="n">
-        <v>322.3947270414213</v>
+        <v>337.8964638257669</v>
       </c>
       <c r="D41" t="n">
-        <v>322.3947270414213</v>
+        <v>337.7721596422273</v>
       </c>
       <c r="E41" t="n">
-        <v>322.3947270414213</v>
+        <v>337.8964638257669</v>
       </c>
       <c r="F41" t="n">
-        <v>322.3947270414213</v>
+        <v>337.8964638257669</v>
       </c>
       <c r="G41" t="n">
-        <v>322.3947270414213</v>
+        <v>337.8964638257669</v>
       </c>
       <c r="H41" t="n">
-        <v>322.3947270414213</v>
+        <v>337.8964638257669</v>
       </c>
       <c r="I41" t="n">
         <v>256.6898085504863</v>
@@ -30520,13 +30522,13 @@
         <v>320.879783609152</v>
       </c>
       <c r="W41" t="n">
-        <v>322.3947270414213</v>
+        <v>337.8964638257669</v>
       </c>
       <c r="X41" t="n">
-        <v>322.3947270414213</v>
+        <v>337.8964638257669</v>
       </c>
       <c r="Y41" t="n">
-        <v>322.3947270414213</v>
+        <v>337.8964638257669</v>
       </c>
     </row>
     <row r="42">
@@ -30694,25 +30696,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>292.9447090858549</v>
+        <v>337.8964638257669</v>
       </c>
       <c r="C44" t="n">
-        <v>292.9447090858549</v>
+        <v>337.8964638257669</v>
       </c>
       <c r="D44" t="n">
-        <v>292.9447090858549</v>
+        <v>337.7721596422273</v>
       </c>
       <c r="E44" t="n">
-        <v>292.9447090858549</v>
+        <v>337.8964638257669</v>
       </c>
       <c r="F44" t="n">
-        <v>292.9447090858549</v>
+        <v>337.8964638257669</v>
       </c>
       <c r="G44" t="n">
-        <v>292.9447090858549</v>
+        <v>337.8964638257669</v>
       </c>
       <c r="H44" t="n">
-        <v>292.9447090858549</v>
+        <v>337.8964638257669</v>
       </c>
       <c r="I44" t="n">
         <v>256.6898085504863</v>
@@ -30754,16 +30756,16 @@
         <v>250.1830790232068</v>
       </c>
       <c r="V44" t="n">
-        <v>292.9447090858549</v>
+        <v>320.879783609152</v>
       </c>
       <c r="W44" t="n">
-        <v>292.944709085855</v>
+        <v>337.8964638257669</v>
       </c>
       <c r="X44" t="n">
-        <v>292.9447090858549</v>
+        <v>337.8964638257669</v>
       </c>
       <c r="Y44" t="n">
-        <v>292.9447090858549</v>
+        <v>337.8964638257669</v>
       </c>
     </row>
     <row r="45">
